--- a/data/Minwage.xlsx
+++ b/data/Minwage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahgahagan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhil/Code/HackNC2017/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,7 +539,9 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <v>7.25</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -673,7 +675,9 @@
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1">
+        <v>7.25</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -719,7 +723,9 @@
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1">
+        <v>7.25</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -757,7 +763,9 @@
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="1">
+        <v>7.25</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -843,7 +851,9 @@
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="1"/>
+      <c r="B41" s="1">
+        <v>7.25</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -857,7 +867,9 @@
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="1"/>
+      <c r="B43" s="1">
+        <v>7.25</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
